--- a/biology/Médecine/Corps_de_Heinz/Corps_de_Heinz.xlsx
+++ b/biology/Médecine/Corps_de_Heinz/Corps_de_Heinz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mis en évidence par des colorants vitaux basophiles, les corps de Heinz correspondent à de l'hémoglobine (Hb) précipitée (chaînes bêta sans hème) visibles sous la forme d'une petite protubérance qui déforme le globule rouge. Ils se forment dans les agressions oxydatives de l'Hb et accompagnent souvent la formation de méthémoglobine. Ils sont caractéristiques également des hémoglobines anormales dites « instables » (Köln, Baltimore, etc.). Leur formation peut être provoquée in vitro par la phénylhydrazine.
  Portail de la médecine   Portail de l’hématologie                    </t>
